--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2094.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2094.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.581467226378982</v>
+        <v>3.580986499786377</v>
       </c>
       <c r="B1">
-        <v>3.155752429663833</v>
+        <v>2.763327836990356</v>
       </c>
       <c r="C1">
-        <v>2.803661672566843</v>
+        <v>2.371453046798706</v>
       </c>
       <c r="D1">
-        <v>3.083943876459132</v>
+        <v>2.514743328094482</v>
       </c>
       <c r="E1">
-        <v>2.614883206308342</v>
+        <v>2.786831140518188</v>
       </c>
     </row>
   </sheetData>
